--- a/Datos/Anuario2024/040202_VisadosDireccionObra.xlsx
+++ b/Datos/Anuario2024/040202_VisadosDireccionObra.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9315" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9315"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2 graf1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="45" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="46" r:id="rId3"/>
+    <sheet name="2" sheetId="48" r:id="rId4"/>
+    <sheet name="2 graf1" sheetId="49" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -25,7 +31,9 @@
     <definedName name="_R1_6">#REF!</definedName>
     <definedName name="_R1_7">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="0">'[1]4.5'!$A$1:$H$6</definedName>
     <definedName name="_R2_4">'[2]4.5'!$A$1:$H$6</definedName>
+    <definedName name="_R2_5" localSheetId="0">'[1]4.6'!$A$1:$C$6</definedName>
     <definedName name="_R2_5">'[2]4.6'!$A$1:$C$6</definedName>
     <definedName name="_R3_1">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
@@ -35,12 +43,15 @@
     <definedName name="_R3_6">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
     <definedName name="_R3_8">#REF!</definedName>
+    <definedName name="_R3_9" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_9">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
     <definedName name="_R4_5">#REF!</definedName>
+    <definedName name="_R4_6" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_6">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
     <definedName name="_R5_1">#REF!</definedName>
     <definedName name="_R5_2">#REF!</definedName>
@@ -85,95 +96,180 @@
     <definedName name="R_6.5">#REF!</definedName>
     <definedName name="R_6.6">#REF!</definedName>
     <definedName name="R_6.7">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="0">'[1]4.5'!$A$1:$H$6</definedName>
-    <definedName name="_R2_5" localSheetId="0">'[1]4.6'!$A$1:$C$6</definedName>
-    <definedName name="_R3_9" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_6" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId123" roundtripDataSignature="AMtx7mi14629vqxTlXuNpB96wxU93wUxZw=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Málaga</t>
+  </si>
+  <si>
+    <t>Total Nacional</t>
+  </si>
+  <si>
+    <t>Fuente: Ministerio de Transporte, Movilidad y Agenda Urbana.</t>
+  </si>
+  <si>
+    <t>Residenciales</t>
+  </si>
+  <si>
+    <t>No residenciales</t>
+  </si>
+  <si>
+    <t>VIVIENDAS VISADAS</t>
+  </si>
+  <si>
+    <t>1. Comparación del número de viviendas visadas con diferentes ámbitos. 2023</t>
+  </si>
+  <si>
+    <t>2. Edificios visados en la ciudad según tipo. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="7"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -208,50 +304,185 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7030A0"/>
+      <color rgb="FFF9D7F7"/>
+      <color rgb="FFCA1EC0"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4911090</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="243840" y="327660"/>
+          <a:ext cx="5048250" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274321</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4941571</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="274321" y="266700"/>
+          <a:ext cx="5048250" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -419,8 +650,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -857,1188 +1088,1064 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>VIVIENDAS VISADAS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="12.85546875" customWidth="1" min="1" max="1"/>
-    <col width="11.42578125" customWidth="1" min="2" max="9"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>1. Comparación del número de viviendas visadas con diferentes ámbitos. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="8" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="n"/>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Total Nacional</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>Comunidad Valenciana</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>Madrid</t>
-        </is>
-      </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G3" s="11" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="H3" s="11" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="I3" s="11" t="inlineStr">
-        <is>
-          <t>Málaga</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="8" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="4">
         <f>SUM(B5:B16)</f>
-        <v/>
+        <v>134366</v>
       </c>
       <c r="C4" s="4">
         <f>SUM(C5:C16)</f>
-        <v/>
+        <v>16955</v>
       </c>
       <c r="D4" s="4">
         <f>SUM(D5:D16)</f>
-        <v/>
+        <v>2606</v>
       </c>
       <c r="E4" s="4">
         <f>SUM(E5:E16)</f>
-        <v/>
+        <v>6407</v>
       </c>
       <c r="F4" s="4">
-        <f>SUM(F5:F16)</f>
-        <v/>
+        <f t="shared" ref="F4:I4" si="0">SUM(F5:F16)</f>
+        <v>1145</v>
       </c>
       <c r="G4" s="4">
-        <f>SUM(G5:G16)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2778</v>
       </c>
       <c r="H4" s="4">
-        <f>SUM(H5:H16)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>2028</v>
       </c>
       <c r="I4" s="4">
-        <f>SUM(I5:I16)</f>
-        <v/>
-      </c>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="8" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="n">
+        <f t="shared" si="0"/>
+        <v>1383</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
         <v>10430</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>1082</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>163</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>797</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="6">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="6">
         <v>224</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="6">
         <v>36</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>69</v>
       </c>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="17" t="n"/>
-      <c r="L5" s="16" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="14" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
+      <c r="J5" s="2"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
         <v>11409</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>1058</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>244</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>234</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>179</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="5">
         <v>388</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="5">
         <v>103</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="5">
         <v>17</v>
       </c>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="17" t="n"/>
-      <c r="L6" s="16" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n">
+      <c r="J6" s="2"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
         <v>13057</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>1696</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6">
         <v>129</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="6">
         <v>711</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="6">
         <v>101</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="6">
         <v>160</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="6">
         <v>50</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>149</v>
       </c>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="17" t="n"/>
-      <c r="L7" s="16" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="14" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
+      <c r="J7" s="2"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
         <v>9740</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>1361</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>222</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>539</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>36</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="3">
         <v>128</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="5">
         <v>580</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="5">
         <v>148</v>
       </c>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="17" t="n"/>
-      <c r="L8" s="16" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="n">
+      <c r="J8" s="2"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
         <v>12059</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>2209</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>375</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>256</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="6">
         <v>23</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="6">
         <v>96</v>
       </c>
-      <c r="H9" s="6" t="n">
+      <c r="H9" s="6">
         <v>287</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>64</v>
       </c>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="17" t="n"/>
-      <c r="L9" s="16" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="14" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n">
+      <c r="J9" s="2"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
         <v>11967</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>2079</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>314</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="5">
         <v>225</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="5">
         <v>24</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="5">
         <v>22</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="5">
         <v>165</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="5">
         <v>123</v>
       </c>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="17" t="n"/>
-      <c r="L10" s="16" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="n">
+      <c r="J10" s="2"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
         <v>12798</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>1406</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>280</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="6">
         <v>659</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="6">
         <v>53</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="6">
         <v>467</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="6">
         <v>49</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="6">
         <v>142</v>
       </c>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="17" t="n"/>
-      <c r="L11" s="16" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="14" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="n">
+      <c r="J11" s="2"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
         <v>7356</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>668</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="5">
         <v>21</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="5">
         <v>465</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="5">
         <v>8</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="5">
         <v>291</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="5">
         <v>29</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="5">
         <v>27</v>
       </c>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="17" t="n"/>
-      <c r="L12" s="16" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="13" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
+      <c r="J12" s="2"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
         <v>11110</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>1132</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6">
         <v>129</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="6">
         <v>818</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="6">
         <v>100</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="6">
         <v>115</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="6">
         <v>349</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="6">
         <v>60</v>
       </c>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="17" t="n"/>
-      <c r="L13" s="16" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="14" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="n">
+      <c r="J13" s="2"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
         <v>12947</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>1083</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>143</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="5">
         <v>592</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="5">
         <v>46</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="5">
         <v>311</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="5">
         <v>103</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="5">
         <v>78</v>
       </c>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="17" t="n"/>
-      <c r="L14" s="16" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="13" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
+      <c r="J14" s="2"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
         <v>11542</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="6">
         <v>1465</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="6">
         <v>430</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="6">
         <v>717</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="6">
         <v>496</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="6">
         <v>218</v>
       </c>
-      <c r="H15" s="6" t="n">
+      <c r="H15" s="6">
         <v>151</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="6">
         <v>294</v>
       </c>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="17" t="n"/>
-      <c r="L15" s="16" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="14" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="n">
+      <c r="J15" s="2"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
         <v>9951</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>1716</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="5">
         <v>156</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="15">
         <v>394</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="5">
         <v>65</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="5">
         <v>358</v>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="5">
         <v>126</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="5">
         <v>212</v>
       </c>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="17" t="n"/>
-      <c r="L16" s="16" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Ministerio de Transporte, Movilidad y Agenda Urbana.</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="12" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="12" t="n"/>
-      <c r="H17" s="12" t="n"/>
-      <c r="I17" s="12" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="8" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
-      <c r="G18" s="8" t="n"/>
-      <c r="H18" s="8" t="n"/>
-      <c r="I18" s="8" t="n"/>
-      <c r="J18" s="8" t="n"/>
-      <c r="K18" s="8" t="n"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="93"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.7109375" customWidth="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="2" t="n"/>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="13.28515625" customWidth="1" min="2" max="3"/>
-    <col width="15.5703125" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="inlineStr">
-        <is>
-          <t>2. Edificios visados en la ciudad según tipo. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-    </row>
-    <row r="3" ht="21" customHeight="1">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>Residenciales</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr">
-        <is>
-          <t>No residenciales</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="4">
         <f>SUM(B5:B16)</f>
-        <v/>
+        <v>1344</v>
       </c>
       <c r="C4" s="4">
         <f>SUM(C5:C16)</f>
-        <v/>
+        <v>1083</v>
       </c>
       <c r="D4" s="4">
         <f>SUM(D5:D16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>Enero</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
         <v>107</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>88</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="14" t="inlineStr">
-        <is>
-          <t>Febrero</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
         <v>118</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>101</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>Marzo</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
         <v>150</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="6">
         <v>116</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="14" t="inlineStr">
-        <is>
-          <t>Abril</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
         <v>91</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>76</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>Mayo</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="n">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
         <v>143</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>113</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="14" t="inlineStr">
-        <is>
-          <t>Junio</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
         <v>165</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>120</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Julio</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
         <v>120</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>97</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="14" t="inlineStr">
-        <is>
-          <t>Agosto</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="n">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="13" t="inlineStr">
-        <is>
-          <t>Septiembre</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
         <v>118</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>99</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6">
         <v>19</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="14" t="inlineStr">
-        <is>
-          <t>Octubre</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="n">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5">
         <v>97</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>82</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="13" t="inlineStr">
-        <is>
-          <t>Noviembre</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
         <v>114</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="6">
         <v>96</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="14" t="inlineStr">
-        <is>
-          <t>Diciembre</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="n">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5">
         <v>92</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>72</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Ministerio de Transporte, Movilidad y Agenda Urbana.</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="12" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="8" t="n"/>
-      <c r="D18" s="8" t="n"/>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.7109375" customWidth="1" min="1" max="1"/>
-    <col width="75.7109375" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>